--- a/Downer/29267/res_F2LSIP ITP 3 - Drainage.xlsx
+++ b/Downer/29267/res_F2LSIP ITP 3 - Drainage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\28974\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\29267\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF14DB7-A8BC-4296-BF90-A6F55B3D91B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF031DB-72B4-41AD-BD3B-45FB6916B3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8595" yWindow="930" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="960" windowWidth="29010" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="118">
   <si>
     <t>type</t>
   </si>
@@ -58,9 +58,6 @@
     <t>itp</t>
   </si>
   <si>
-    <t>F2LSIP - ITP 3 - Drainage</t>
-  </si>
-  <si>
     <t>3 - Drainage</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>○ Precast headwalls/wingwalls design drawings to be submitted for approval pre construction. Design to comply with project requirements and relevant NZS standards.</t>
   </si>
   <si>
-    <t>3.1.8 - Granular pipe bedding and surround</t>
-  </si>
-  <si>
     <t>Acceptance Criteria - Granular material to comply with grading as per NZS 3725.</t>
   </si>
   <si>
@@ -362,6 +356,27 @@
   </si>
   <si>
     <t>○ Closed-Circuit Television (CCTV) Inspection in accordance with the New Zealand Pipe Inspection Manual (latest edition).</t>
+  </si>
+  <si>
+    <t>F2LSIP - ITP 03 - Drainage</t>
+  </si>
+  <si>
+    <t>19a555c1-e65d-4ceb-92ad-c6d974a0db7e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.8 - Granular pipe bedding and surround / Placing Geotextile fabric under rip rap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Material Grading as per NZS 3725:2007 </t>
+  </si>
+  <si>
+    <t>○ The bedding shall be enveloped in geotextile filter fabric (Terram 1000 or Bidim A29) that complies with TNZ F/7 geotextile, minimum strength class C, and minimum infiltration Class 1.</t>
+  </si>
+  <si>
+    <t>○ Unsuitable material shall be removed to a depth of 600mm (or any greater) and replaced with approved material in layers of 150mm loose depth whch shall be compacted as specified in  either the relevant standard or contract documents.</t>
+  </si>
+  <si>
+    <t>○ NZTA F/3 - 3.6 - Unsuitable Foundation Material.</t>
   </si>
 </sst>
 </file>
@@ -510,7 +525,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,6 +726,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4CC82"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +901,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -888,6 +914,8 @@
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1243,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1252,7 +1280,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="186.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="232.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1260,7 +1288,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,12 +1314,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -1301,119 +1329,122 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,7 +1452,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1429,7 +1460,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1437,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1476,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1453,7 +1484,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1461,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1469,7 +1500,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1508,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1485,7 +1516,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1524,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1501,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1509,7 +1540,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,7 +1548,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1556,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1564,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1541,7 +1572,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1549,7 +1580,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1557,7 +1588,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1596,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1604,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,7 +1612,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1620,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1628,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1636,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1613,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1621,7 +1652,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1660,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1668,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1676,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1684,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1661,7 +1692,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +1700,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1677,7 +1708,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,15 +1716,15 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>27</v>
+      <c r="A51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1732,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1709,7 +1740,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1717,15 +1748,15 @@
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>45</v>
+      <c r="A55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1733,15 +1764,15 @@
         <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>46</v>
+      <c r="A57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,7 +1780,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1788,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1765,7 +1796,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1773,7 +1804,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1781,39 +1812,39 @@
         <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>47</v>
+      <c r="A63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>50</v>
+      <c r="B66" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1821,7 +1852,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1829,7 +1860,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1837,7 +1868,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1845,7 +1876,7 @@
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1853,47 +1884,47 @@
         <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>57</v>
+      <c r="B76" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1901,7 +1932,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1909,7 +1940,7 @@
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1917,7 +1948,7 @@
         <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1925,7 +1956,7 @@
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1933,15 +1964,15 @@
         <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>64</v>
+      <c r="A82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1949,15 +1980,15 @@
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>66</v>
+      <c r="A84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1965,7 +1996,7 @@
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1973,7 +2004,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1981,7 +2012,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1989,7 +2020,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1997,15 +2028,15 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>72</v>
+      <c r="A90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2013,15 +2044,15 @@
         <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>74</v>
+      <c r="A92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2029,7 +2060,7 @@
         <v>9</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2037,15 +2068,15 @@
         <v>9</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>77</v>
+      <c r="B95" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2053,39 +2084,39 @@
         <v>9</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>61</v>
+      <c r="A97" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>62</v>
+      <c r="A98" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>79</v>
+      <c r="B99" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>80</v>
+      <c r="A100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2093,7 +2124,7 @@
         <v>9</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2101,7 +2132,7 @@
         <v>9</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2109,15 +2140,15 @@
         <v>9</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>84</v>
+      <c r="A104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2125,7 +2156,7 @@
         <v>9</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2133,7 +2164,7 @@
         <v>9</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2141,23 +2172,23 @@
         <v>9</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>20</v>
+      <c r="A108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>85</v>
+      <c r="A109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2165,7 +2196,7 @@
         <v>9</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2173,23 +2204,23 @@
         <v>9</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>88</v>
+      <c r="A112" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>89</v>
+      <c r="A113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2197,7 +2228,7 @@
         <v>9</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2205,7 +2236,7 @@
         <v>9</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2213,7 +2244,7 @@
         <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2221,7 +2252,7 @@
         <v>9</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2229,7 +2260,7 @@
         <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2237,7 +2268,7 @@
         <v>9</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2245,7 +2276,7 @@
         <v>9</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2253,7 +2284,7 @@
         <v>9</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2261,7 +2292,7 @@
         <v>9</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2269,7 +2300,7 @@
         <v>9</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2277,7 +2308,7 @@
         <v>9</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2285,7 +2316,7 @@
         <v>9</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2293,15 +2324,15 @@
         <v>9</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>99</v>
+      <c r="A127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2309,31 +2340,31 @@
         <v>9</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B129" s="5" t="s">
-        <v>101</v>
+      <c r="B129" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B130" s="5" t="s">
-        <v>102</v>
+      <c r="B130" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>103</v>
+      <c r="A131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2341,7 +2372,7 @@
         <v>9</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2349,7 +2380,7 @@
         <v>9</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2357,31 +2388,31 @@
         <v>9</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B135" s="5" t="s">
-        <v>105</v>
+      <c r="B135" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>20</v>
+      <c r="A136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>107</v>
+      <c r="A137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2389,7 +2420,7 @@
         <v>9</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2397,47 +2428,47 @@
         <v>9</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>112</v>
+      <c r="A140" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>108</v>
+      <c r="A141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>16</v>
+      <c r="B142" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>61</v>
+      <c r="B143" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>62</v>
+      <c r="B144" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2445,7 +2476,39 @@
         <v>9</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
